--- a/lvl2/oose/vcs/metricstable.xlsx
+++ b/lvl2/oose/vcs/metricstable.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
-    <t xml:space="preserve">Table 1: Chidamber and Kemerer software metrics</t>
+    <t xml:space="preserve">Table 1: Chidamber and Kemerer software metrics – Stuart Reilly 2258082</t>
   </si>
   <si>
     <t xml:space="preserve">Class</t>
@@ -513,7 +513,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -635,10 +635,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -753,16 +749,16 @@
   </sheetPr>
   <dimension ref="B2:M62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.66"/>
@@ -771,7 +767,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="10.6"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
@@ -864,23 +860,31 @@
         <v>14</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="G5" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="14" t="n">
+        <v>2</v>
+      </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
@@ -888,10 +892,14 @@
         <v>16</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="G6" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="14" t="n">
         <v>0</v>
@@ -901,7 +909,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,10 +920,15 @@
         <v>18</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <f aca="false">SUM(E7:E11)</f>
+        <v>5</v>
+      </c>
       <c r="G7" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="15" t="n">
         <v>2</v>
@@ -924,7 +937,9 @@
       <c r="J7" s="15"/>
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="M7" s="15" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="15"/>
@@ -932,7 +947,9 @@
       <c r="D8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -948,7 +965,9 @@
       <c r="D9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -964,7 +983,9 @@
       <c r="D10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -980,7 +1001,9 @@
       <c r="D11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -998,10 +1021,14 @@
         <v>24</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="G12" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="14" t="n">
         <v>0</v>
@@ -1010,7 +1037,9 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="M12" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
@@ -1020,10 +1049,14 @@
         <v>26</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="G13" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="22" t="n">
         <v>0</v>
@@ -1032,7 +1065,9 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="M13" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
@@ -1042,10 +1077,14 @@
         <v>28</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="G14" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" s="14" t="n">
         <v>0</v>
@@ -1054,7 +1093,9 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="M14" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
@@ -1064,10 +1105,14 @@
         <v>30</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="G15" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="14" t="n">
         <v>0</v>
@@ -1076,9 +1121,11 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="15" t="s">
         <v>31</v>
       </c>
@@ -1086,10 +1133,15 @@
         <v>32</v>
       </c>
       <c r="D16" s="17"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <f aca="false">SUM(E16:E20)</f>
+        <v>5</v>
+      </c>
       <c r="G16" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="15" t="n">
         <v>4</v>
@@ -1098,15 +1150,19 @@
       <c r="J16" s="15"/>
       <c r="K16" s="14"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="15" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="15"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -1116,13 +1172,15 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="15"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -1132,13 +1190,15 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="15"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -1148,13 +1208,15 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="15"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -1172,10 +1234,14 @@
         <v>37</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="G21" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="14" t="n">
         <v>0</v>
@@ -1184,7 +1250,9 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="M21" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="11" t="s">
@@ -1194,10 +1262,14 @@
         <v>39</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="G22" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="23" t="n">
         <v>0</v>
@@ -1206,9 +1278,11 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="15" t="s">
         <v>40</v>
       </c>
@@ -1216,10 +1290,15 @@
         <v>41</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15" t="n">
+        <f aca="false">SUM(E23:E27)</f>
+        <v>5</v>
+      </c>
       <c r="G23" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="24" t="n">
         <v>2</v>
@@ -1228,15 +1307,19 @@
       <c r="J23" s="15"/>
       <c r="K23" s="14"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" s="15" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="15"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="24"/>
@@ -1246,13 +1329,15 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="15"/>
       <c r="C25" s="18"/>
       <c r="D25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="24"/>
@@ -1262,13 +1347,15 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="15"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="24"/>
@@ -1278,13 +1365,15 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="15"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="24"/>
@@ -1294,7 +1383,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="15" t="s">
         <v>44</v>
       </c>
@@ -1302,10 +1391,15 @@
       <c r="D28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15" t="n">
+        <f aca="false">SUM(E28:E41)</f>
+        <v>14</v>
+      </c>
       <c r="G28" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="15" t="n">
         <v>3</v>
@@ -1314,15 +1408,19 @@
       <c r="J28" s="15"/>
       <c r="K28" s="14"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" s="15" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="15"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -1332,13 +1430,15 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="15"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -1348,13 +1448,15 @@
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="15"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -1364,13 +1466,15 @@
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="15"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -1380,13 +1484,15 @@
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="15"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -1396,13 +1502,15 @@
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="15"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -1412,13 +1520,15 @@
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="15"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -1428,13 +1538,15 @@
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="15"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="14"/>
+      <c r="E36" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -1444,13 +1556,15 @@
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="15"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="14"/>
+      <c r="E37" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -1460,13 +1574,15 @@
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="15"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="14"/>
+      <c r="E38" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -1476,13 +1592,15 @@
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="15"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="14"/>
+      <c r="E39" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -1492,13 +1610,15 @@
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="15"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="14"/>
+      <c r="E40" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -1508,13 +1628,15 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="15"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="14"/>
+      <c r="E41" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -1533,9 +1655,12 @@
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="25"/>
+      <c r="F42" s="25" t="n">
+        <f aca="false">SUM(E42:E49)</f>
+        <v>0</v>
+      </c>
       <c r="G42" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="25" t="n">
         <v>0</v>
@@ -1658,7 +1783,7 @@
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
     </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="15" t="s">
         <v>65</v>
       </c>
@@ -1667,9 +1792,16 @@
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="26"/>
+      <c r="F50" s="15" t="n">
+        <f aca="false">SUM(E50:E54)</f>
+        <v>3</v>
+      </c>
+      <c r="G50" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
       <c r="K50" s="14"/>
@@ -1682,7 +1814,9 @@
       <c r="D51" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="26"/>
@@ -1714,7 +1848,9 @@
       <c r="D53" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="14"/>
+      <c r="E53" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="26"/>
@@ -1730,7 +1866,9 @@
       <c r="D54" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="14"/>
+      <c r="E54" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="26"/>
@@ -1754,123 +1892,123 @@
       <c r="J55" s="28"/>
       <c r="K55" s="29"/>
       <c r="L55" s="30"/>
-      <c r="M55" s="31"/>
+      <c r="M55" s="17"/>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33" t="s">
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33" t="s">
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
-      <c r="M58" s="35"/>
+      <c r="M58" s="34"/>
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
-      <c r="M59" s="35"/>
+      <c r="M59" s="34"/>
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
-      <c r="M60" s="35"/>
+      <c r="M60" s="34"/>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
-      <c r="M61" s="35"/>
+      <c r="M61" s="34"/>
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="39"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="55">

--- a/lvl2/oose/vcs/metricstable.xlsx
+++ b/lvl2/oose/vcs/metricstable.xlsx
@@ -749,22 +749,22 @@
   </sheetPr>
   <dimension ref="B2:M62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P51" activeCellId="0" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="6.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="10.6"/>
@@ -873,13 +873,17 @@
         <v>0</v>
       </c>
       <c r="I5" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" s="14" t="n">
         <v>0</v>
       </c>
@@ -904,10 +908,18 @@
       <c r="H6" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="I6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="14" t="n">
+        <v>2</v>
+      </c>
       <c r="M6" s="14" t="n">
         <v>0</v>
       </c>
@@ -933,12 +945,21 @@
       <c r="H7" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="I7" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="15" t="n">
+        <f aca="false">SUM(K7:K11)+5</f>
+        <v>9</v>
+      </c>
       <c r="M7" s="15" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,9 +974,13 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
+      <c r="I8" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J8" s="15"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
@@ -971,9 +996,13 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J9" s="15"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
@@ -989,9 +1018,13 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
+      <c r="I10" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
@@ -1007,9 +1040,13 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
+      <c r="I11" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" s="15"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
@@ -1033,10 +1070,18 @@
       <c r="H12" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="I12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="M12" s="14" t="n">
         <v>0</v>
       </c>
@@ -1061,10 +1106,18 @@
       <c r="H13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="I13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="M13" s="14" t="n">
         <v>0</v>
       </c>
@@ -1089,10 +1142,18 @@
       <c r="H14" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="I14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="M14" s="14" t="n">
         <v>0</v>
       </c>
@@ -1117,10 +1178,18 @@
       <c r="H15" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="I15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="M15" s="14" t="n">
         <v>0</v>
       </c>
@@ -1146,12 +1215,21 @@
       <c r="H16" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
+      <c r="I16" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="15" t="n">
+        <f aca="false">SUM(K16:K20)+5</f>
+        <v>11</v>
+      </c>
       <c r="M16" s="15" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,9 +1244,13 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
@@ -1184,9 +1266,13 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="15"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
@@ -1202,9 +1288,13 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="14"/>
+      <c r="I19" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" s="15"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
@@ -1220,9 +1310,13 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J20" s="15"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
@@ -1246,10 +1340,18 @@
       <c r="H21" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="I21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="M21" s="14" t="n">
         <v>0</v>
       </c>
@@ -1274,10 +1376,18 @@
       <c r="H22" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="I22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="M22" s="14" t="n">
         <v>0</v>
       </c>
@@ -1303,12 +1413,21 @@
       <c r="H23" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
+      <c r="I23" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" s="15" t="n">
+        <f aca="false">SUM(K23:K27)+5</f>
+        <v>11</v>
+      </c>
       <c r="M23" s="15" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,9 +1442,13 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="14"/>
+      <c r="I24" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" s="15"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
@@ -1341,9 +1464,13 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="14"/>
+      <c r="I25" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="15"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
@@ -1359,9 +1486,13 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="14"/>
+      <c r="I26" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J26" s="15"/>
-      <c r="K26" s="14"/>
+      <c r="K26" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
@@ -1377,9 +1508,13 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="14"/>
+      <c r="I27" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J27" s="15"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
@@ -1404,12 +1539,21 @@
       <c r="H28" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="15"/>
+      <c r="I28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15" t="n">
+        <f aca="false">SUM(K28:K41)+ROWS(K28:K41)-1</f>
+        <v>16</v>
+      </c>
       <c r="M28" s="15" t="n">
-        <v>0.86</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,9 +1568,13 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="14"/>
+      <c r="I29" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="15"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
@@ -1442,7 +1590,9 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="14"/>
+      <c r="I30" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="15"/>
       <c r="K30" s="14"/>
       <c r="L30" s="15"/>
@@ -1460,9 +1610,13 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="14"/>
+      <c r="I31" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J31" s="15"/>
-      <c r="K31" s="14"/>
+      <c r="K31" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
     </row>
@@ -1478,9 +1632,13 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="14"/>
+      <c r="I32" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J32" s="15"/>
-      <c r="K32" s="14"/>
+      <c r="K32" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
     </row>
@@ -1496,9 +1654,13 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="14"/>
+      <c r="I33" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J33" s="15"/>
-      <c r="K33" s="14"/>
+      <c r="K33" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
     </row>
@@ -1514,9 +1676,13 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="14"/>
+      <c r="I34" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" s="15"/>
-      <c r="K34" s="14"/>
+      <c r="K34" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
     </row>
@@ -1532,9 +1698,13 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="14"/>
+      <c r="I35" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="15"/>
-      <c r="K35" s="14"/>
+      <c r="K35" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
     </row>
@@ -1550,9 +1720,13 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="14"/>
+      <c r="I36" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="15"/>
-      <c r="K36" s="14"/>
+      <c r="K36" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
     </row>
@@ -1568,9 +1742,13 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="14"/>
+      <c r="I37" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="15"/>
-      <c r="K37" s="14"/>
+      <c r="K37" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
     </row>
@@ -1586,9 +1764,13 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="14"/>
+      <c r="I38" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="15"/>
-      <c r="K38" s="14"/>
+      <c r="K38" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
     </row>
@@ -1604,9 +1786,13 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="14"/>
+      <c r="I39" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="15"/>
-      <c r="K39" s="14"/>
+      <c r="K39" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
     </row>
@@ -1622,9 +1808,13 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="14"/>
+      <c r="I40" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="15"/>
-      <c r="K40" s="14"/>
+      <c r="K40" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
     </row>
@@ -1640,9 +1830,13 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="14"/>
+      <c r="I41" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="15"/>
-      <c r="K41" s="14"/>
+      <c r="K41" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
     </row>
@@ -1654,10 +1848,12 @@
         <v>57</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="E42" s="14"/>
+      <c r="E42" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F42" s="25" t="n">
         <f aca="false">SUM(E42:E49)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G42" s="25" t="n">
         <v>1</v>
@@ -1665,11 +1861,22 @@
       <c r="H42" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
+      <c r="I42" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="25" t="n">
+        <v>9</v>
+      </c>
+      <c r="K42" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L42" s="25" t="n">
+        <f aca="false">SUM(K42:K49)+ROWS(K42:K49)</f>
+        <v>34</v>
+      </c>
+      <c r="M42" s="25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="15"/>
@@ -1677,13 +1884,19 @@
       <c r="D43" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
-      <c r="I43" s="14"/>
+      <c r="I43" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="25"/>
-      <c r="K43" s="14"/>
+      <c r="K43" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
     </row>
@@ -1693,13 +1906,19 @@
       <c r="D44" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="14"/>
+      <c r="E44" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
-      <c r="I44" s="14"/>
+      <c r="I44" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J44" s="25"/>
-      <c r="K44" s="14"/>
+      <c r="K44" s="14" t="n">
+        <v>2</v>
+      </c>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
     </row>
@@ -1709,13 +1928,19 @@
       <c r="D45" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" s="14" t="n">
+        <v>5</v>
+      </c>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
-      <c r="I45" s="14"/>
+      <c r="I45" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J45" s="25"/>
-      <c r="K45" s="14"/>
+      <c r="K45" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
     </row>
@@ -1725,13 +1950,19 @@
       <c r="D46" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="14"/>
+      <c r="E46" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
-      <c r="I46" s="14"/>
+      <c r="I46" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="25"/>
-      <c r="K46" s="14"/>
+      <c r="K46" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
     </row>
@@ -1741,13 +1972,19 @@
       <c r="D47" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="14"/>
+      <c r="E47" s="14" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
-      <c r="I47" s="14"/>
+      <c r="I47" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J47" s="25"/>
-      <c r="K47" s="14"/>
+      <c r="K47" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
     </row>
@@ -1757,13 +1994,19 @@
       <c r="D48" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="14"/>
+      <c r="E48" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
-      <c r="I48" s="14"/>
+      <c r="I48" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J48" s="25"/>
-      <c r="K48" s="14"/>
+      <c r="K48" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
     </row>
@@ -1773,13 +2016,19 @@
       <c r="D49" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="14"/>
+      <c r="E49" s="14" t="n">
+        <v>9</v>
+      </c>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
-      <c r="I49" s="14"/>
+      <c r="I49" s="14" t="n">
+        <v>8</v>
+      </c>
       <c r="J49" s="25"/>
-      <c r="K49" s="14"/>
+      <c r="K49" s="14" t="n">
+        <v>8</v>
+      </c>
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
     </row>
@@ -1791,10 +2040,12 @@
         <v>66</v>
       </c>
       <c r="D50" s="17"/>
-      <c r="E50" s="14"/>
+      <c r="E50" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="F50" s="15" t="n">
         <f aca="false">SUM(E50:E54)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G50" s="15" t="n">
         <v>1</v>
@@ -1802,11 +2053,22 @@
       <c r="H50" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
+      <c r="I50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="15" t="n">
+        <f aca="false">1+ROWS(K50:K54)</f>
+        <v>6</v>
+      </c>
+      <c r="M50" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="15"/>
@@ -1820,9 +2082,13 @@
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="26"/>
-      <c r="I51" s="14"/>
+      <c r="I51" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="15"/>
-      <c r="K51" s="14"/>
+      <c r="K51" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
     </row>
@@ -1832,13 +2098,19 @@
       <c r="D52" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="14" t="n">
+        <v>9</v>
+      </c>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="26"/>
-      <c r="I52" s="14"/>
+      <c r="I52" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="15"/>
-      <c r="K52" s="14"/>
+      <c r="K52" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
     </row>
@@ -1854,9 +2126,13 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="26"/>
-      <c r="I53" s="14"/>
+      <c r="I53" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="15"/>
-      <c r="K53" s="14"/>
+      <c r="K53" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
     </row>
@@ -1872,9 +2148,13 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="26"/>
-      <c r="I54" s="14"/>
+      <c r="I54" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="15"/>
-      <c r="K54" s="14"/>
+      <c r="K54" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
     </row>
